--- a/src/main/resources/datatest/DonViTaiTroPage.xlsx
+++ b/src/main/resources/datatest/DonViTaiTroPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ThemDonVi" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>No.</t>
   </si>
@@ -109,7 +109,43 @@
     <t>Xóa Đơn vị tài trợ</t>
   </si>
   <si>
+    <t>6.Select on Đơn vị cần xóa</t>
+  </si>
+  <si>
+    <t>7.Show popup</t>
+  </si>
+  <si>
+    <t>8.Click "Xóa" button</t>
+  </si>
+  <si>
+    <t>9.11.Verify Notification Message Text</t>
+  </si>
+  <si>
     <t>Edit Đơn vị tài trợ</t>
+  </si>
+  <si>
+    <t>6.Click "pencil" icon</t>
+  </si>
+  <si>
+    <t>7.Edit Uploadfile logo</t>
+  </si>
+  <si>
+    <t>8.Edit Tên đơn vị</t>
+  </si>
+  <si>
+    <t>Tỉnh Khánh Hòa</t>
+  </si>
+  <si>
+    <t>9.Edit Link</t>
+  </si>
+  <si>
+    <t>khanhhoa@gmail.com</t>
+  </si>
+  <si>
+    <t>10.Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>11.Verify Notification Message Text</t>
   </si>
 </sst>
 </file>
@@ -122,7 +158,7 @@
     <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -152,8 +188,17 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,13 +216,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
@@ -195,14 +233,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -530,7 +560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -555,13 +585,43 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -581,25 +641,51 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,137 +814,137 @@
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -872,39 +958,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1384,8 +1496,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
@@ -1417,141 +1529,141 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="12">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="12"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="12"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="13">
         <v>123456</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="12"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="12"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="12"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="12"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="12"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="12"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="17"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="25" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1577,14 +1689,14 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F6"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="23.1296296296296" customWidth="1"/>
-    <col min="5" max="5" width="27.75" customWidth="1"/>
+    <col min="5" max="5" width="37.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="55.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1609,93 +1721,123 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="17">
         <v>123456</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="12"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="12"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="12"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:1">
-      <c r="A10" s="12"/>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="15"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="15"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="15"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="22"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" customHeight="1" spans="1:1">
-      <c r="A11" s="12"/>
+      <c r="A11" s="23"/>
     </row>
     <row r="12" customHeight="1" spans="1:1">
-      <c r="A12" s="12"/>
+      <c r="A12" s="23"/>
     </row>
     <row r="13" customHeight="1" spans="1:1">
-      <c r="A13" s="12"/>
+      <c r="A13" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A2:A10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://saigon-business.erp.meu-solutions.com/dang-nhap"/>
@@ -1710,19 +1852,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="19.3796296296296" customWidth="1"/>
     <col min="4" max="4" width="22.3796296296296" customWidth="1"/>
-    <col min="5" max="5" width="27.3796296296296" customWidth="1"/>
-    <col min="6" max="6" width="45.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="32.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="49.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
@@ -1752,69 +1894,136 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="7"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="7"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="7">
         <v>123456</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="7"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="3"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A2:A12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://saigon-business.erp.meu-solutions.com/dang-nhap"/>
+    <hyperlink ref="F10" r:id="rId2" display="khanhhoa@gmail.com" tooltip="mailto:khanhhoa@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
